--- a/organization/Function Points.xlsx
+++ b/organization/Function Points.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Car Data Tab</t>
   </si>
   <si>
-    <t>Settings Tab</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
@@ -53,22 +50,25 @@
     <t>Display Analytics</t>
   </si>
   <si>
-    <t>Analize Laptime Improvements</t>
-  </si>
-  <si>
     <t>x: time</t>
   </si>
   <si>
     <t>y: function points</t>
   </si>
   <si>
-    <t>x = (y - 19,011) / 104,19</t>
-  </si>
-  <si>
     <t>Time Estimation (h:mm)</t>
   </si>
   <si>
     <t>Time spent (h:mm)</t>
+  </si>
+  <si>
+    <t>Settings Tab (Semester I)</t>
+  </si>
+  <si>
+    <t>Settings Tab (Semester II)</t>
+  </si>
+  <si>
+    <t>x = (y - 7,27) / 136,01</t>
   </si>
 </sst>
 </file>
@@ -238,8 +238,36 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,8 +300,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.818382311196125E-2"/>
-          <c:y val="2.6560424966799469E-2"/>
+          <c:x val="6.9570401037640672E-2"/>
+          <c:y val="2.6560353854731884E-2"/>
           <c:w val="0.73206510583847573"/>
           <c:h val="0.87737205160111953"/>
         </c:manualLayout>
@@ -318,7 +346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B921D808-7281-4A4A-8843-25F4CF456A2C}" type="CELLRANGE">
+                    <a:fld id="{7D1D95F4-5A3F-4E38-86A2-9CFE84944AF1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -351,7 +379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{558CE668-0E9C-43B9-9287-7570CE999EC9}" type="CELLRANGE">
+                    <a:fld id="{70B24962-3CFF-4CA2-AFAF-D11300341556}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -385,7 +413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8139DFA3-EBC1-4213-BA22-0EF40E828289}" type="CELLRANGE">
+                    <a:fld id="{742FC414-247A-4496-B7A1-8C4AD8256EDB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -419,7 +447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16395C97-50F8-4B45-AF23-454334565EB5}" type="CELLRANGE">
+                    <a:fld id="{BA980B46-326F-4954-AC60-88BFD45E1D21}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -520,8 +548,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.25729252645415995"/>
-                  <c:y val="-0.12900463801857404"/>
+                  <c:x val="0.33286593647507873"/>
+                  <c:y val="-0.12959557321911216"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -591,7 +619,7 @@
                   <c:v>36.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.8</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,7 +641,7 @@
                     <c:v>Car Data Tab</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Settings Tab</c:v>
+                    <c:v>Settings Tab (Semester I)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -659,8 +687,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BD03321-6B4B-4D12-8022-0D696C44C181}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5CBAB621-B228-4C6F-94EC-2F57C322B9EA}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -678,6 +706,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -692,7 +721,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:fld id="{D90BA106-0C7E-42F3-B6DC-074FDC474C71}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -704,7 +738,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-58D9-4D94-89B8-40444B5B760C}"/>
                 </c:ext>
@@ -712,16 +750,27 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14581941296439443"/>
+                  <c:y val="-2.158894645941286E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:fld id="{B8AE71EE-73F0-4169-9E8E-D03744C7FCC1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -729,7 +778,10 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-58D9-4D94-89B8-40444B5B760C}"/>
                 </c:ext>
@@ -800,7 +852,13 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26863422593339092</c:v>
+                  <c:v>0.29211087420042647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55091537386956846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13623998235423868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,6 +871,12 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +895,7 @@
                     <c:v>Display Analytics</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Analize Laptime Improvements</c:v>
+                    <c:v>Settings Tab (Semester II)</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1740,7 +1804,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>507850</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>20619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2066,31 +2130,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2101,9 +2165,9 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="14">
         <v>0.33958333333333335</v>
@@ -2112,7 +2176,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2123,134 +2187,141 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14">
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B8" s="15">
-        <f>(C8-19.011)/104.19</f>
-        <v>0.26863422593339092</v>
+        <f>(C8-7.27)/136.01</f>
+        <v>0.29211087420042647</v>
       </c>
       <c r="C8" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" ref="B9:B10" si="0">(C9-7.27)/136.01</f>
+        <v>0.55091537386956846</v>
+      </c>
+      <c r="C9" s="12">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.13623998235423868</v>
+      </c>
+      <c r="C10" s="12">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>11</v>
-      </c>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="16"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="16"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="16"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/organization/Function Points.xlsx
+++ b/organization/Function Points.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>General Tab</t>
   </si>
@@ -346,7 +346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D1D95F4-5A3F-4E38-86A2-9CFE84944AF1}" type="CELLRANGE">
+                    <a:fld id="{6A56DAA6-D628-4A2B-9B66-C47D8964AF03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -379,7 +379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70B24962-3CFF-4CA2-AFAF-D11300341556}" type="CELLRANGE">
+                    <a:fld id="{24795E42-88F6-44B3-BEEE-3629004930CD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -413,7 +413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{742FC414-247A-4496-B7A1-8C4AD8256EDB}" type="CELLRANGE">
+                    <a:fld id="{29DBA275-8AA8-49D5-8B7C-516480190E7F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -447,7 +447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA980B46-326F-4954-AC60-88BFD45E1D21}" type="CELLRANGE">
+                    <a:fld id="{764597D4-60EC-420C-9F6B-FF9EABDA43B5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -548,8 +548,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.33286593647507873"/>
-                  <c:y val="-0.12959557321911216"/>
+                  <c:x val="0.42068855706508201"/>
+                  <c:y val="-0.12894035991744771"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -605,7 +605,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$5</c:f>
+              <c:f>Tabelle1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -687,7 +687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CBAB621-B228-4C6F-94EC-2F57C322B9EA}" type="CELLRANGE">
+                    <a:fld id="{BAFBB3A6-9BE2-4653-A20A-E3AC6350B17E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -721,7 +721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D90BA106-0C7E-42F3-B6DC-074FDC474C71}" type="CELLRANGE">
+                    <a:fld id="{3D6F6A0B-A5E8-4508-8464-6A0188F74A4B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -761,7 +761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8AE71EE-73F0-4169-9E8E-D03744C7FCC1}" type="CELLRANGE">
+                    <a:fld id="{239D6B0E-02BE-4E40-A11E-4AD4FC4297A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -865,7 +865,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$8:$C$10</c:f>
+              <c:f>Tabelle1!$D$8:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -902,6 +902,163 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-E9CC-435A-A74A-24A10578E016}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Actual Time for New UC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0598733448474374E-2"/>
+                  <c:y val="2.6711185308847998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{000B2288-A898-4B5B-B4DC-67F52C1640B6}" type="CELLREF">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEZ]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable>
+                    <c15:dlblFTEntry>
+                      <c15:txfldGUID>{000B2288-A898-4B5B-B4DC-67F52C1640B6}</c15:txfldGUID>
+                      <c15:f>Tabelle1!$A$10</c15:f>
+                      <c15:dlblFieldTableCache>
+                        <c:ptCount val="1"/>
+                        <c:pt idx="0">
+                          <c:v>Settings Tab (Semester II)</c:v>
+                        </c:pt>
+                      </c15:dlblFieldTableCache>
+                    </c15:dlblFTEntry>
+                  </c15:dlblFieldTable>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C73B-47E0-9547-5402A4CCF4B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>0.59722222222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$8:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C73B-47E0-9547-5402A4CCF4B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1166,8 +1323,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.81672378387934674"/>
           <c:y val="0.44529936999366165"/>
-          <c:w val="0.17464063753688816"/>
-          <c:h val="0.2304167570625795"/>
+          <c:w val="0.18327621612065334"/>
+          <c:h val="0.27490366709169695"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1796,16 +1953,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65890</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>20619</xdr:rowOff>
+      <xdr:rowOff>68244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>507850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>20619</xdr:rowOff>
+      <xdr:rowOff>68244</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2130,20 +2287,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2151,177 +2308,211 @@
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14">
         <v>0.43958333333333338</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="14">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D2" s="4">
         <v>71.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="14">
         <v>0.33958333333333335</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="14">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="D3" s="4">
         <v>44.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="14">
         <v>0.16597222222222222</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="14">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="D4" s="4">
         <v>36.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="14">
         <v>7.8472222222222221E-2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="14">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="D5" s="3">
         <v>15.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="15">
-        <f>(C8-7.27)/136.01</f>
+        <f>(D8-7.27)/136.01</f>
         <v>0.29211087420042647</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="15"/>
+      <c r="D8" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="15">
-        <f t="shared" ref="B9:B10" si="0">(C9-7.27)/136.01</f>
+        <f>(D9-7.27)/136.01</f>
         <v>0.55091537386956846</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15"/>
+      <c r="D9" s="12">
         <v>82.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="15">
-        <f t="shared" si="0"/>
+        <f>(D10-7.27)/136.01</f>
         <v>0.13623998235423868</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="15">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D10" s="12">
         <v>25.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="16"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/organization/Function Points.xlsx
+++ b/organization/Function Points.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>New Use Cases</t>
   </si>
   <si>
-    <t>Record and Save/Load Data</t>
-  </si>
-  <si>
-    <t>Display Analytics</t>
-  </si>
-  <si>
     <t>x: time</t>
   </si>
   <si>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>x = (y - 7,27) / 136,01</t>
+  </si>
+  <si>
+    <t>Analyze Acceleration Behavior</t>
+  </si>
+  <si>
+    <t>Analyze Upshift Times</t>
   </si>
 </sst>
 </file>
@@ -300,8 +300,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9570401037640672E-2"/>
-          <c:y val="2.6560353854731884E-2"/>
+          <c:x val="6.9570454812551419E-2"/>
+          <c:y val="2.430503020681278E-2"/>
           <c:w val="0.73206510583847573"/>
           <c:h val="0.87737205160111953"/>
         </c:manualLayout>
@@ -316,26 +316,61 @@
             <c:v>Implemented Use Cases</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:dLbls>
@@ -346,7 +381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A56DAA6-D628-4A2B-9B66-C47D8964AF03}" type="CELLRANGE">
+                    <a:fld id="{0C775F81-4B0E-4722-A544-508208564B49}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -379,7 +414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24795E42-88F6-44B3-BEEE-3629004930CD}" type="CELLRANGE">
+                    <a:fld id="{68BE18AA-D00F-42FD-A5FE-3256B44D234F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -413,7 +448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29DBA275-8AA8-49D5-8B7C-516480190E7F}" type="CELLRANGE">
+                    <a:fld id="{6A2C760E-F98F-4929-8FFC-A9307D532EAF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -447,7 +482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{764597D4-60EC-420C-9F6B-FF9EABDA43B5}" type="CELLRANGE">
+                    <a:fld id="{812C2E6F-2765-4C7D-8547-091733D4B459}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -490,9 +525,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -517,14 +551,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -538,7 +571,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -567,9 +600,8 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -662,33 +694,75 @@
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16690856739922436"/>
+                  <c:y val="-3.1574199368516014E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAFBB3A6-9BE2-4653-A20A-E3AC6350B17E}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{1C596AB7-4379-46DB-BEFD-6D175AA13A3C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -696,7 +770,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -706,7 +780,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -716,13 +789,19 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8953896310224903E-2"/>
+                  <c:y val="4.0595399188092018E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D6F6A0B-A5E8-4508-8464-6A0188F74A4B}" type="CELLRANGE">
-                      <a:rPr lang="de-DE"/>
+                    <a:fld id="{E6BE7B53-FA91-4A2E-B58F-DCC6C2016558}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -730,7 +809,7 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="l"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -740,7 +819,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -761,7 +839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{239D6B0E-02BE-4E40-A11E-4AD4FC4297A4}" type="CELLRANGE">
+                    <a:fld id="{155AACB2-2442-4C46-9172-50ADD635E5C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -803,9 +881,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -830,14 +907,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -852,10 +928,10 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.29211087420042647</c:v>
+                  <c:v>0.40533784280567603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55091537386956846</c:v>
+                  <c:v>0.40533784280567603</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13623998235423868</c:v>
@@ -870,10 +946,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.2</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25.8</c:v>
@@ -889,10 +965,10 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>Record and Save/Load Data</c:v>
+                    <c:v>Analyze Acceleration Behavior</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Display Analytics</c:v>
+                    <c:v>Analyze Upshift Times</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Settings Tab (Semester II)</c:v>
@@ -916,24 +992,126 @@
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7965726920950803E-2"/>
+                  <c:y val="4.5105999097880016E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Analyze Acceleration Behavior</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BCD3-4063-BFE4-65B7520E038A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16583747927031509"/>
+                  <c:y val="1.1276499774470004E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Analyze Upshift Times</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BCD3-4063-BFE4-65B7520E038A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
@@ -999,9 +1177,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1021,7 +1198,20 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1031,6 +1221,12 @@
               <c:numCache>
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4513888888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39374999999999999</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.59722222222222221</c:v>
                 </c:pt>
@@ -1044,10 +1240,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.2</c:v>
+                  <c:v>62.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25.8</c:v>
@@ -1080,6 +1276,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1087,11 +1297,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1106,6 +1315,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031506944716487"/>
+              <c:y val="0.93369844331028307"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1119,11 +1336,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1136,19 +1352,17 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="[h]:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1159,9 +1373,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1187,9 +1400,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1197,20 +1410,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1218,11 +1417,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1250,11 +1448,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1267,19 +1464,17 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1290,9 +1485,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1316,15 +1510,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81672378387934674"/>
-          <c:y val="0.44529936999366165"/>
-          <c:w val="0.18327621612065334"/>
-          <c:h val="0.27490366709169695"/>
+          <c:x val="0.10679835729489039"/>
+          <c:y val="0.96194154688715328"/>
+          <c:w val="0.78640328541021909"/>
+          <c:h val="3.8058453112846689E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1342,9 +1536,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1361,17 +1554,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1434,62 +1638,66 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1498,9 +1706,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1519,14 +1726,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1535,20 +1734,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1557,13 +1756,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1575,30 +1774,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1614,21 +1814,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1647,14 +1844,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1666,14 +1862,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1687,9 +1883,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1703,12 +1898,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1720,9 +1909,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1737,14 +1926,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1756,14 +1944,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1775,14 +1963,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1791,14 +1978,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1806,7 +1992,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1819,11 +2005,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1831,14 +2025,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1850,12 +2044,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1871,7 +2072,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1880,9 +2081,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1898,14 +2098,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1914,20 +2113,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1939,12 +2135,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2289,32 +2479,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2518,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2532,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2356,9 +2546,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="14">
         <v>7.8472222222222221E-2</v>
@@ -2370,52 +2560,56 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="15">
         <f>(D8-7.27)/136.01</f>
-        <v>0.29211087420042647</v>
-      </c>
-      <c r="C8" s="15"/>
+        <v>0.40533784280567603</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="D8" s="11">
-        <v>47</v>
+        <v>62.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" s="15">
         <f>(D9-7.27)/136.01</f>
-        <v>0.55091537386956846</v>
-      </c>
-      <c r="C9" s="15"/>
+        <v>0.40533784280567603</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.39374999999999999</v>
+      </c>
       <c r="D9" s="12">
-        <v>82.2</v>
+        <v>62.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="15">
         <f>(D10-7.27)/136.01</f>
@@ -2428,89 +2622,89 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
